--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,30 +46,33 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>disappointed</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
@@ -79,66 +82,63 @@
     <t>apart</t>
   </si>
   <si>
-    <t>broken</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>excellent</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>great</t>
@@ -541,7 +544,7 @@
         <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,13 +626,13 @@
         <v>39</v>
       </c>
       <c r="K3">
-        <v>0.8392857142857143</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L3">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -641,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -649,13 +652,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K4">
-        <v>0.8307692307692308</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -691,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -699,13 +702,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8125</v>
+        <v>0.7815533980582524</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K5">
-        <v>0.7096774193548387</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L5">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M5">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -741,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -749,13 +752,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7631578947368421</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -767,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K6">
-        <v>0.5471698113207547</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="L6">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M6">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -791,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,13 +802,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7323943661971831</v>
+        <v>0.7473118279569892</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="D7">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K7">
-        <v>0.53125</v>
+        <v>0.5</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -841,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,13 +852,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7204301075268817</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C8">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -867,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K8">
-        <v>0.3305988515176374</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="L8">
-        <v>403</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>404</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>816</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -899,13 +902,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6990291262135923</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C9">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="D9">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -917,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K9">
-        <v>0.2826398852223816</v>
+        <v>0.3360655737704918</v>
       </c>
       <c r="L9">
-        <v>197</v>
+        <v>410</v>
       </c>
       <c r="M9">
-        <v>197</v>
+        <v>410</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -941,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>500</v>
+        <v>810</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -949,13 +952,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6621621621621622</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C10">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D10">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -967,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K10">
-        <v>0.2655601659751037</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="L10">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="M10">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -991,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>354</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -999,13 +1002,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6134453781512605</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C11">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1017,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K11">
-        <v>0.2583333333333334</v>
+        <v>0.2593360995850623</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1041,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>89</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1049,13 +1052,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5818181818181818</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1067,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K12">
-        <v>0.2108433734939759</v>
+        <v>0.2583333333333334</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1091,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>131</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1099,13 +1102,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4753623188405797</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="C13">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="D13">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1117,19 +1120,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K13">
-        <v>0.1865443425076453</v>
+        <v>0.1987951807228916</v>
       </c>
       <c r="L13">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="M13">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1141,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>266</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1149,13 +1152,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4094488188976378</v>
+        <v>0.4985507246376812</v>
       </c>
       <c r="C14">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="D14">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1167,31 +1170,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K14">
-        <v>0.07280701754385965</v>
+        <v>0.1773700305810398</v>
       </c>
       <c r="L14">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="M14">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="N14">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1057</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1199,13 +1202,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3894736842105263</v>
+        <v>0.4251968503937008</v>
       </c>
       <c r="C15">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D15">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1217,31 +1220,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K15">
-        <v>0.03378817413905133</v>
+        <v>0.08326029798422437</v>
       </c>
       <c r="L15">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="M15">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="N15">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1487</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1249,13 +1252,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3855421686746988</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C16">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1267,7 +1270,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16">
+        <v>0.03636363636363636</v>
+      </c>
+      <c r="L16">
+        <v>56</v>
+      </c>
+      <c r="M16">
+        <v>57</v>
+      </c>
+      <c r="N16">
+        <v>0.98</v>
+      </c>
+      <c r="O16">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1484</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1275,13 +1302,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2985781990521327</v>
+        <v>0.34375</v>
       </c>
       <c r="C17">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D17">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1293,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>148</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1301,13 +1328,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2871287128712871</v>
+        <v>0.3069306930693069</v>
       </c>
       <c r="C18">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D18">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1319,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1327,13 +1354,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.28125</v>
+        <v>0.2890995260663507</v>
       </c>
       <c r="C19">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D19">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1345,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>92</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1353,13 +1380,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.264957264957265</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C20">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1371,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1405,13 +1432,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.185</v>
+        <v>0.1942857142857143</v>
       </c>
       <c r="C22">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D22">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1423,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1431,13 +1458,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1835443037974684</v>
+        <v>0.185</v>
       </c>
       <c r="C23">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D23">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1449,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>258</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1457,13 +1484,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1811594202898551</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="C24">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1475,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1483,13 +1510,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.172106824925816</v>
+        <v>0.1795252225519288</v>
       </c>
       <c r="C25">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D25">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1501,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1509,13 +1536,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1677215189873418</v>
+        <v>0.1487341772151899</v>
       </c>
       <c r="C26">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D26">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1527,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1535,13 +1562,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1495327102803738</v>
+        <v>0.1455696202531646</v>
       </c>
       <c r="C27">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D27">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1553,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>182</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1561,13 +1588,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1494252873563219</v>
+        <v>0.1355140186915888</v>
       </c>
       <c r="C28">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1579,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>296</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1587,13 +1614,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1145374449339207</v>
+        <v>0.13215859030837</v>
       </c>
       <c r="C29">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D29">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1605,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1613,13 +1640,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1013698630136986</v>
+        <v>0.1235632183908046</v>
       </c>
       <c r="C30">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D30">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1631,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>328</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1639,25 +1666,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.07755775577557755</v>
+        <v>0.09863013698630137</v>
       </c>
       <c r="C31">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D31">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E31">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>559</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1665,25 +1692,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0645879732739421</v>
+        <v>0.06589785831960461</v>
       </c>
       <c r="C32">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D32">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>420</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
